--- a/master/website/static/datatemplates/materialcost.xlsx
+++ b/master/website/static/datatemplates/materialcost.xlsx
@@ -429,17 +429,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>int(11)</t>
+          <t>varchar(50)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>int(11)</t>
+          <t>varchar(50)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>varchar(50)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -449,81 +449,73 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>int(11)</t>
+          <t>int(255)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>int(11)</t>
+          <t>int(255)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>int(11)</t>
+          <t>varchar(8)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>int(255)</t>
+          <t>varchar(50)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>int(255)</t>
+          <t>varchar(50)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>(id)입력x</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>factory_id</t>
+          <t>공장ID</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>co_id</t>
+          <t>법인ID</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mc_ym</t>
+          <t>version</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mc_version</t>
+          <t>사업장ID</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>jaitem_id</t>
+          <t>수량</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>workcenter_id</t>
+          <t>금액</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>moitem_id</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>mc_amount</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>mc_price</t>
-        </is>
-      </c>
+          <t>년월</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/master/website/static/datatemplates/materialcost.xlsx
+++ b/master/website/static/datatemplates/materialcost.xlsx
@@ -449,73 +449,81 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>varchar(50)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>varchar(50)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>varchar(6)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>int(255)</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>int(255)</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>varchar(8)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>varchar(50)</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>varchar(50)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(id)입력x</t>
+          <t>ID (입력x)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>공장ID</t>
+          <t>공장코드</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>법인ID</t>
+          <t>법인코드</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>계정코드</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>사업장ID</t>
+          <t>version코드</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>사업장코드</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>bom코드</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>년월 ex) 200001</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>금액</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>년월</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
